--- a/Excel/Buff-Buff表.xlsx
+++ b/Excel/Buff-Buff表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23145" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>导出类型</t>
   </si>
@@ -116,6 +116,12 @@
     <t>IsControll</t>
   </si>
   <si>
+    <t>ControllSort</t>
+  </si>
+  <si>
+    <t>ControllAnimation</t>
+  </si>
+  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
     <t>是否属于硬控技能</t>
   </si>
   <si>
+    <t>仅硬控技能有效,控制Buff权重,决定使用哪个动画</t>
+  </si>
+  <si>
+    <t>仅硬控技能有效,返回控制时的动画播放</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -143,7 +155,22 @@
     <t>bool</t>
   </si>
   <si>
+    <t>?number</t>
+  </si>
+  <si>
+    <t>?string</t>
+  </si>
+  <si>
     <t>眩晕</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>walk</t>
   </si>
 </sst>
 </file>
@@ -179,7 +206,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -192,7 +219,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -422,12 +450,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1247,7 +1275,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,6 +1299,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1682,17 +1716,17 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.175" customWidth="1"/>
-    <col min="2" max="2" width="13.825" customWidth="1"/>
-    <col min="3" max="3" width="17.2" customWidth="1"/>
-    <col min="4" max="4" width="26.025" customWidth="1"/>
-    <col min="5" max="5" width="33.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="25.4333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.8416666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.34166666666667" customWidth="1"/>
+    <col min="5" max="5" width="24.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.35" customWidth="1"/>
     <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
     <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
     <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
@@ -1732,7 +1766,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:18">
+    <row r="2" ht="22.5" customHeight="1" spans="1:18">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1752,7 +1786,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:4">
+    <row r="3" ht="22.5" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1765,55 +1799,79 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="1:4">
+    <row r="4" ht="49" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:4">
+    <row r="5" ht="22.5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:4">
+    <row r="6" ht="22.5" customHeight="1" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:4">
+    <row r="7" ht="22.5" customHeight="1" spans="1:6">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1821,46 +1879,88 @@
       <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
     <cfRule type="duplicateValues" dxfId="1" priority="12"/>
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Buff-Buff表.xlsx
+++ b/Excel/Buff-Buff表.xlsx
@@ -45,29 +45,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0   不可驱散
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1   仅强驱散
-2   弱驱散</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
@@ -91,12 +68,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0   不可驱散
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1   仅强驱散
+2   弱驱散</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>无视物理闪避</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>导出类型</t>
   </si>
@@ -107,6 +119,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Define</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -125,6 +140,9 @@
     <t>id唯一</t>
   </si>
   <si>
+    <t>定义</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -161,16 +179,25 @@
     <t>?string</t>
   </si>
   <si>
+    <t>stun</t>
+  </si>
+  <si>
     <t>眩晕</t>
   </si>
   <si>
-    <t>stun</t>
+    <t>fear</t>
   </si>
   <si>
     <t>恐惧</t>
   </si>
   <si>
     <t>walk</t>
+  </si>
+  <si>
+    <t>noMiss</t>
+  </si>
+  <si>
+    <t>克敌机先</t>
   </si>
 </sst>
 </file>
@@ -450,12 +477,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1275,8 +1302,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1300,15 +1330,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1713,254 +1734,296 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.8416666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.34166666666667" customWidth="1"/>
-    <col min="5" max="5" width="24.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.35" customWidth="1"/>
-    <col min="7" max="7" width="13.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="21.675" customWidth="1"/>
-    <col min="11" max="12" width="11.3416666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.0083333333333" customWidth="1"/>
-    <col min="14" max="14" width="25.3416666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.3416666666667" customWidth="1"/>
-    <col min="17" max="17" width="23.5083333333333" customWidth="1"/>
-    <col min="18" max="18" width="17.5083333333333" customWidth="1"/>
-    <col min="21" max="21" width="17.8583333333333" customWidth="1"/>
-    <col min="24" max="24" width="19.05" customWidth="1"/>
+    <col min="1" max="1" width="11.8416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.0083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.34166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5083333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.675" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.3416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.0083333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.3416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5083333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.3416666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5083333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5083333333333" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="17.8583333333333" style="1" customWidth="1"/>
+    <col min="22" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="19.05" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:18">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" ht="49" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
+    <row r="5" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="6" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A7" s="3">
+    <row r="7" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="b">
+      <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="4">
         <v>1000</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A8" s="3">
+    <row r="8" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="b">
+      <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Buff-Buff表.xlsx
+++ b/Excel/Buff-Buff表.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>导出类型</t>
   </si>
@@ -134,9 +134,6 @@
     <t>ControllSort</t>
   </si>
   <si>
-    <t>ControllAnimation</t>
-  </si>
-  <si>
     <t>id唯一</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>仅硬控技能有效,控制Buff权重,决定使用哪个动画</t>
   </si>
   <si>
-    <t>仅硬控技能有效,返回控制时的动画播放</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -167,6 +161,9 @@
     <t>number</t>
   </si>
   <si>
+    <t>?string</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>?number</t>
   </si>
   <si>
-    <t>?string</t>
-  </si>
-  <si>
     <t>stun</t>
   </si>
   <si>
@@ -191,13 +185,13 @@
     <t>恐惧</t>
   </si>
   <si>
-    <t>walk</t>
-  </si>
-  <si>
     <t>noMiss</t>
   </si>
   <si>
     <t>克敌机先</t>
+  </si>
+  <si>
+    <t>恶魔降临</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1296,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,6 +1323,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1734,10 +1731,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1810,7 +1807,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:7">
+    <row r="3" ht="22.5" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1829,88 +1826,76 @@
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+    </row>
+    <row r="4" ht="49" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    <row r="5" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
+    <row r="6" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:7">
+    <row r="7" ht="22.5" customHeight="1" spans="1:6">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1921,19 +1906,16 @@
       <c r="F7" s="4">
         <v>1000</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:7">
+    <row r="8" ht="22.5" customHeight="1" spans="1:6">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1943,9 +1925,6 @@
       </c>
       <c r="F8" s="4">
         <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1953,15 +1932,30 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="1">
+        <v>21001001</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1993,10 +1987,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="0" priority="189"/>
     <cfRule type="duplicateValues" dxfId="1" priority="190"/>
@@ -2021,10 +2011,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
